--- a/dataset/tentativo finale/baseForAnalysis.xlsx
+++ b/dataset/tentativo finale/baseForAnalysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loris\Desktop\Python Workspace\FirstTryMiller\dataset\tentativo finale\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B2BF5E-2748-47B3-8000-7BB066A23FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E827BA-5AF1-42CF-87BF-A3B3EA2F0E07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="63">
   <si>
     <t>Porosity_Tot</t>
   </si>
@@ -239,10 +239,13 @@
     <t>CR-C-FR1_SD_100_D_200</t>
   </si>
   <si>
-    <t>Valori Reali</t>
+    <t>MODELLO 2</t>
   </si>
   <si>
-    <t>Valori Predetti</t>
+    <t>MODELLO 1</t>
+  </si>
+  <si>
+    <t>(Roccia con cluster valori alti)</t>
   </si>
 </sst>
 </file>
@@ -252,7 +255,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,8 +305,38 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -355,6 +388,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -468,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -503,7 +548,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -533,12 +577,21 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -562,820 +615,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="it-IT"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>completo</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx2"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="it-IT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="3.5413885667866102E-2"/>
-          <c:y val="0.14171384703392526"/>
-          <c:w val="0.90023041873900267"/>
-          <c:h val="0.80919795655144566"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Foglio1!$N$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>k_m2_predetto</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:gradFill rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="103000"/>
-                      <a:lumMod val="102000"/>
-                      <a:tint val="94000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent1">
-                      <a:satMod val="110000"/>
-                      <a:lumMod val="100000"/>
-                      <a:shade val="100000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent1">
-                      <a:lumMod val="99000"/>
-                      <a:satMod val="120000"/>
-                      <a:shade val="78000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="5400000" scaled="0"/>
-              </a:gradFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:round/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="9525" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:intercept val="0"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.42083967899074343"/>
-                  <c:y val="7.5295820580566969E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx2"/>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="it-IT"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Foglio1!$L$2:$L$71</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>1.4733495000000001E-12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2547240999999999E-12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.5431770000000004E-12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.66492E-13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>9.1807830000000009E-13</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.4357736000000003E-12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4.0103018999999999E-13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.9370212E-12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.9339074000000003E-12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.0218022000000002E-13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.1904361000000002E-13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.5160513999999999E-11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.8223900000000007E-11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.2759674000000006E-11</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.0095695E-11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.3194900000000001E-10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.2895400000000013E-11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.3909435000000001E-13</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.0668770000000001E-13</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.3909435000000001E-13</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.0668770000000001E-13</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>5.5319436000000006E-13</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.4561792000000004E-14</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7.8112268999999997E-13</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.2353148000000001E-12</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5.4298431000000012E-13</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.9337147000000004E-13</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.2555051000000001E-13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>7.1330220000000006E-13</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.9337147000000004E-13</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.2555051000000001E-13</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>7.1330220000000006E-13</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.7672094000000001E-13</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>2.2115025000000001E-13</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.7395398E-13</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>5.6971674000000008E-13</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.2351886E-13</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>8.4856410000000007E-14</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>4.9661667000000001E-13</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.4597414999999999E-12</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.4627858E-13</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.5641764999999999E-13</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.0213209E-12</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>5.3625402000000002E-13</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.9240092000000003E-13</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>8.7501060000000007E-13</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.4616321999999996E-13</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>5.4999999999999999E-14</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>3.7628104499999998E-11</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>9.8677179999999999E-12</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>6.5677179999999999E-12</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.7628104499999998E-11</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>8.5086450000000006E-11</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>6.7827537000000006E-11</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.2644019E-11</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>8.8677180000000018E-12</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.5080661000000001E-11</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>8.2706669999999994E-13</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>9.647262000000001E-13</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.8802760513951737E-12</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.4730002736342988E-12</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.7484871956428836E-12</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.6334947910373836E-12</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.2402555199999328E-12</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.3093254396664981E-12</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.1923199999999998E-13</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.2891338982167461E-13</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.2184385921212248E-13</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.423394240107942E-13</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>2.9315519999999838E-13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Foglio1!$N$2:$N$71</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="70"/>
-                <c:pt idx="0">
-                  <c:v>5.8412467722482497E-12</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.69673014028506E-12</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>7.06095563591897E-12</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.1931184366726609E-13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4195080659613401E-12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.08402968194841E-12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.30063080204641E-12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.2200132229115E-12</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.12211992067679E-12</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8.2635616307889196E-13</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.2635616307889196E-13</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>5.4432273047151899E-11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3.6584943572024301E-11</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>5.4082579888658503E-11</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.8032193098864099E-11</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.2018098364601901E-10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>8.3132915493006997E-11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>5.7103100923840102E-13</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.33959767470898E-13</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>4.34074950764911E-14</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.93150405704647E-13</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.7972084879004901E-13</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>6.2681375527119096E-13</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.04981906486647E-12</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.3167717187070799E-12</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.21044626222489E-12</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.3955002776307798E-13</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>4.3955002776307798E-13</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>6.0607722579518804E-13</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4.3955002776307798E-13</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>4.3955002776307798E-13</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>6.0607722579518804E-13</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.93452897383381E-13</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.9134164510700602E-13</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>6.0879670216281003E-13</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>6.3930456062493596E-13</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.2419329162096999E-13</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>2.7393615617504902E-13</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>5.7680998866775399E-13</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>5.7680998866775399E-13</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>5.7680998866775399E-13</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>6.6338047782723297E-13</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>6.1853854373914505E-13</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>6.6338047782723297E-13</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>8.2635616307889196E-13</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>9.1690843547329995E-13</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>3.6050666069255401E-13</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.1646747035290598E-13</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.8177196424875501E-11</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.7189363044058901E-11</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.7216539630882299E-11</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>7.0320449572484597E-11</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>3.6185457573828401E-11</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>5.4073390433540403E-11</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>4.6388824330821797E-12</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>3.2332142578280501E-12</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>6.5144439716337999E-12</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>9.8349225114635194E-13</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>7.5783155814574297E-13</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>5.3309605790645903E-13</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>5.3309605790645903E-13</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.5453154770181202E-13</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>3.1072429447304301E-13</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>4.1646747035290598E-13</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>4.45377486610623E-13</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>4.23624683927046E-13</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>4.23624683927046E-13</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>5.5301661454875004E-13</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4.1646747035290598E-13</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.42215740660358E-13</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F008-471D-8E7B-598703961795}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1002290656"/>
-        <c:axId val="1002296896"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1002290656"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="1.4000000000000005E-9"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1002296896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1002296896"/>
-        <c:scaling>
-          <c:logBase val="10"/>
-          <c:orientation val="minMax"/>
-          <c:max val="1.4000000000000005E-9"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx2">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="tx2">
-                <a:lumMod val="40000"/>
-                <a:lumOff val="60000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx2"/>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="it-IT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1002290656"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx2">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="it-IT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1880,7 +1119,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -1900,10 +1139,61 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
               <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:srgbClr val="44546A"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>whole dataset</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:srgbClr val="44546A"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1912,7 +1202,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>completo</a:t>
+              <a:t>+ extra data</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3120,7 +2410,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -3755,7 +3045,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -4399,7 +3689,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -4434,7 +3724,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="it-IT"/>
-              <a:t>test 2  tentativo</a:t>
+              <a:t>test</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -5015,7 +4305,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -5659,7 +4949,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="it-IT"/>
@@ -6275,11 +5565,868 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="it-IT"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="it-IT" b="1"/>
+              <a:t>whole dataset</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="it-IT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Foglio1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>k_m2_predetto</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:intercept val="0"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.33463491331549727"/>
+                  <c:y val="6.1041572782641371E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="it-IT"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Foglio1!$L$2:$L$80</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>1.4733495000000001E-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2547240999999999E-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.5431770000000004E-12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.66492E-13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.1807830000000009E-13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4357736000000003E-12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0103018999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.9370212E-12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9339074000000003E-12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0218022000000002E-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.1904361000000002E-13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5160513999999999E-11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8223900000000007E-11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.2759674000000006E-11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.0095695E-11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3194900000000001E-10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.2895400000000013E-11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3909435000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0668770000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.3909435000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.0668770000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5319436000000006E-13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.4561792000000004E-14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.8112268999999997E-13</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2353148000000001E-12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.4298431000000012E-13</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.9337147000000004E-13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.2555051000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.1330220000000006E-13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.9337147000000004E-13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.2555051000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.1330220000000006E-13</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7672094000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.2115025000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.7395398E-13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>5.6971674000000008E-13</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.2351886E-13</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>8.4856410000000007E-14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.9661667000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.4597414999999999E-12</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.4627858E-13</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.5641764999999999E-13</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.0213209E-12</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>5.3625402000000002E-13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.9240092000000003E-13</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>8.7501060000000007E-13</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>3.4616321999999996E-13</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>5.4999999999999999E-14</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.7628104499999998E-11</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.8677179999999999E-12</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>6.5677179999999999E-12</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>3.7628104499999998E-11</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>8.5086450000000006E-11</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>6.7827537000000006E-11</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.2644019E-11</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>8.8677180000000018E-12</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.5080661000000001E-11</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>8.2706669999999994E-13</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>9.647262000000001E-13</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.8802760513951737E-12</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.4730002736342988E-12</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.7484871956428836E-12</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6334947910373836E-12</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.2402555199999328E-12</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.3093254396664981E-12</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1923199999999998E-13</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.2891338982167461E-13</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.2184385921212248E-13</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.423394240107942E-13</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>2.9315519999999838E-13</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>4.7640959999999784E-13</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>3.4679676597961759E-14</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.4719975928790126E-14</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>3.421847979355276E-14</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.3525077285022923E-14</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>2.6877207999999859E-13</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>2.1940210239999988E-13</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.8408758399999882E-13</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>2.4444745599999908E-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Foglio1!$O$2:$O$80</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="79"/>
+                <c:pt idx="0">
+                  <c:v>5.4661654453848497E-12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1147697086400801E-12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.9076826763031496E-12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.1539064883779099E-12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.01724198885463E-12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.29762861513745E-12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.4644581819840799E-12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.7157911868736901E-12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9101477259039099E-12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.4411678303799597E-13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.4411678303799597E-13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.1070038393122005E-11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.6643635312464698E-11</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.1445717414123098E-11</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.2397106249157498E-11</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.9400484101544903E-11</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>7.8413176409089903E-11</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.7344585935199498E-13</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.7821531686607598E-13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.07134272265309E-13</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.6451843037795799E-13</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2.4452816273995899E-13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.00532125778257E-13</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1676234170898701E-12</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.03066349057978E-12</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0903813928807699E-12</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.2342379337519701E-13</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.5101139241284799E-13</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.6346578407742103E-13</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4.2342379337519701E-13</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.5101139241284799E-13</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>7.6346578407742103E-13</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.21835642855575E-13</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>3.43891488191139E-13</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>5.2078391007211602E-13</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.9912290441551597E-13</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.9899785898776801E-13</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.7694827972678301E-13</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>5.1533518963237898E-13</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.1533518963237898E-13</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.1533518963237898E-13</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>4.8509376220410103E-13</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.6195182780045102E-13</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>4.9171356283711504E-13</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>6.9272935822051502E-13</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>7.7120936218384498E-13</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2.3588512648687102E-13</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.9514195771722699E-13</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>3.3198680201848303E-11</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>9.5654373329558306E-12</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.1189345357741099E-11</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>5.3473385729073903E-11</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>7.5106945800730905E-11</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>7.8413176409089903E-11</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.36755409290553E-11</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>7.3857869763072104E-12</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.78354330336667E-11</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-5.7157557508710496E-14</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>8.5926792119181298E-13</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.0662508788478399E-12</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.40897196871597E-12</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.7169776702154299E-12</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.27403292899953E-12</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.08075141916532E-12</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.10704018217583E-12</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.67442867375795E-13</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.3188052899957699E-13</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>7.8152315867465596E-15</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>2.8313618195457099E-13</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.6300152612124796E-13</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.6634816283578197E-13</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.01671376367638E-13</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>2.01671376367638E-13</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.1946715103840701E-13</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>2.01671376367638E-13</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.77603783215395E-13</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.4531161451352998E-13</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>2.15368278213782E-13</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>3.2847150798371202E-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B2D8-42F3-BFE5-E9E8BBA330E7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1192314736"/>
+        <c:axId val="1192315216"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1192314736"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000005E-9"/>
+          <c:min val="1.0000000000000007E-13"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1192315216"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1192315216"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1.0000000000000005E-9"/>
+          <c:min val="1.0000000000000007E-13"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="it-IT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1192314736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="it-IT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
   <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
   <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -6393,29 +6540,35 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="242">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6428,7 +6581,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -6436,7 +6589,7 @@
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6444,14 +6597,17 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
@@ -6460,8 +6616,9 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk2">
-        <a:lumMod val="75000"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
@@ -6484,35 +6641,35 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -6524,19 +6681,18 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="2"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
@@ -6545,10 +6701,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="3"/>
-    <cs:effectRef idx="2"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -6564,16 +6720,21 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6583,22 +6744,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -6607,17 +6769,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:dropLine>
@@ -6626,13 +6788,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="75000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6644,20 +6807,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -6671,16 +6840,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="5000"/>
             <a:lumOff val="95000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:gridlineMinor>
@@ -6689,17 +6859,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:hiLoLine>
@@ -6708,16 +6878,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
+          <a:schemeClr val="tx1">
             <a:lumMod val="35000"/>
             <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:leaderLine>
@@ -6726,24 +6897,27 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6751,19 +6925,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:seriesAxis>
   <cs:seriesLine>
@@ -6771,17 +6937,17 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="60000"/>
-            <a:lumOff val="40000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="dash"/>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:seriesLine>
@@ -6790,9 +6956,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1600" b="1" kern="1200"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6801,13 +6970,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="9525" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6816,7 +6986,10 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:trendlineLabel>
@@ -6825,19 +6998,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -6846,16 +7020,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx2">
-            <a:lumMod val="40000"/>
-            <a:lumOff val="60000"/>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6865,8 +7043,14 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx2"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -7907,23 +8091,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>244736</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>103318</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>220579</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>80211</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>35410</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>69028</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>32886</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>43915</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafico 1">
+        <xdr:cNvPr id="5" name="Grafico 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1CE0DCA-68C9-A4E3-8C28-C814C62AD994}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08EC7AF-982B-456D-47F1-993569E15E35}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7943,52 +8127,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>298459</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>168815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Grafico 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F08EC7AF-982B-456D-47F1-993569E15E35}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>17722</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>88605</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>473980</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>143648</xdr:rowOff>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>153139</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>43385</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8009,6 +8157,42 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1098176</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>471842</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>52594</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Grafico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC5EA40-6413-3AB5-5CF7-5D4D41FE4D08}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
@@ -8018,22 +8202,22 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>1098176</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>181685</xdr:rowOff>
+      <xdr:colOff>1517467</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>69542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>471842</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>52593</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>499076</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>169818</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Grafico 5">
+        <xdr:cNvPr id="10" name="Grafico 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC5EA40-6413-3AB5-5CF7-5D4D41FE4D08}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1332322-CFCE-3B38-4F50-8BA82CD99D42}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8053,23 +8237,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>587827</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>115262</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>182881</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>10160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>148556</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>32658</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>314961</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>193040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="10" name="Grafico 9">
+        <xdr:cNvPr id="4" name="Grafico 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1332322-CFCE-3B38-4F50-8BA82CD99D42}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B97D3F-66C5-AED2-A8E0-C05D034110D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8089,27 +8273,29 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>1137920</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>111760</xdr:colOff>
-      <xdr:row>82</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>184005</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>57291</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Grafico 3">
+        <xdr:cNvPr id="8" name="Grafico 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92B97D3F-66C5-AED2-A8E0-C05D034110D5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C67AD723-8549-4E60-8DE1-362A67B1661C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8125,23 +8311,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>24342</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>99935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
-      <xdr:colOff>107805</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>73704</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>4805</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>93849</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Grafico 7">
+        <xdr:cNvPr id="9" name="Grafico 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C67AD723-8549-4E60-8DE1-362A67B1661C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD4A676-FC7F-4AAE-B5FF-4E151C2CD3EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8163,29 +8349,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>136768</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>1631462</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>97691</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>56</xdr:col>
-      <xdr:colOff>117231</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>156308</xdr:rowOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>371231</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>175845</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Grafico 8">
+        <xdr:cNvPr id="7" name="Grafico 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFD4A676-FC7F-4AAE-B5FF-4E151C2CD3EB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5901E118-135B-0930-40A9-BFBC36EE40CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8465,10 +8649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BE128"/>
+  <dimension ref="A1:BT128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q67" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="92" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="L82" sqref="L82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8488,9 +8672,11 @@
     <col min="15" max="15" width="17.88671875" customWidth="1"/>
     <col min="16" max="16" width="26.109375" customWidth="1"/>
     <col min="17" max="17" width="25.6640625" customWidth="1"/>
+    <col min="19" max="20" width="8.88671875" customWidth="1"/>
+    <col min="21" max="21" width="2.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
@@ -8536,8 +8722,11 @@
       <c r="R1" s="9" t="s">
         <v>12</v>
       </c>
+      <c r="S1" s="41" t="s">
+        <v>62</v>
+      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>15</v>
       </c>
@@ -8547,13 +8736,13 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="36">
         <v>0.20499999999999999</v>
       </c>
-      <c r="F2" s="38">
+      <c r="F2" s="37">
         <v>45.892682926829302</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="38">
         <v>310.91300000000001</v>
       </c>
       <c r="H2" s="2">
@@ -8578,7 +8767,7 @@
         <v>5.4661654453848497E-12</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
@@ -8588,13 +8777,13 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="36">
         <v>0.20499999999999999</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="37">
         <v>45.892682926829302</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="38">
         <v>310.91300000000001</v>
       </c>
       <c r="H3" s="2">
@@ -8619,7 +8808,7 @@
         <v>2.1147697086400801E-12</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>15</v>
       </c>
@@ -8629,13 +8818,13 @@
       <c r="D4">
         <v>2</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="36">
         <v>0.20499999999999999</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="37">
         <v>45.892682926829302</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="38">
         <v>310.91300000000001</v>
       </c>
       <c r="H4" s="2">
@@ -8660,7 +8849,7 @@
         <v>7.9076826763031496E-12</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>15</v>
       </c>
@@ -8670,13 +8859,13 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" s="37">
+      <c r="E5" s="36">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="37">
         <v>54.744318181818187</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="38">
         <v>350.137</v>
       </c>
       <c r="H5" s="2">
@@ -8701,7 +8890,7 @@
         <v>1.1539064883779099E-12</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>15</v>
       </c>
@@ -8711,13 +8900,13 @@
       <c r="D6">
         <v>4</v>
       </c>
-      <c r="E6" s="37">
+      <c r="E6" s="36">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F6" s="38">
+      <c r="F6" s="37">
         <v>54.744318181818187</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="38">
         <v>350.137</v>
       </c>
       <c r="H6" s="2">
@@ -8742,7 +8931,7 @@
         <v>1.01724198885463E-12</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>15</v>
       </c>
@@ -8752,13 +8941,13 @@
       <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7" s="37">
+      <c r="E7" s="36">
         <v>0.17599999999999999</v>
       </c>
-      <c r="F7" s="38">
+      <c r="F7" s="37">
         <v>54.744318181818187</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="38">
         <v>350.137</v>
       </c>
       <c r="H7" s="2">
@@ -8783,7 +8972,7 @@
         <v>1.29762861513745E-12</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>15</v>
       </c>
@@ -8793,13 +8982,13 @@
       <c r="D8">
         <v>6</v>
       </c>
-      <c r="E8" s="37">
+      <c r="E8" s="36">
         <v>0.184</v>
       </c>
-      <c r="F8" s="38">
+      <c r="F8" s="37">
         <v>53.413043478260867</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="38">
         <v>368.14100000000002</v>
       </c>
       <c r="H8" s="2">
@@ -8824,7 +9013,7 @@
         <v>1.4644581819840799E-12</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
@@ -8834,13 +9023,13 @@
       <c r="D9">
         <v>7</v>
       </c>
-      <c r="E9" s="37">
+      <c r="E9" s="36">
         <v>0.184</v>
       </c>
-      <c r="F9" s="38">
+      <c r="F9" s="37">
         <v>53.413043478260867</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="38">
         <v>368.14100000000002</v>
       </c>
       <c r="H9" s="2">
@@ -8865,7 +9054,7 @@
         <v>2.7157911868736901E-12</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>15</v>
       </c>
@@ -8875,13 +9064,13 @@
       <c r="D10">
         <v>8</v>
       </c>
-      <c r="E10" s="37">
+      <c r="E10" s="36">
         <v>0.184</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="37">
         <v>53.413043478260867</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="38">
         <v>368.14100000000002</v>
       </c>
       <c r="H10" s="2">
@@ -8906,7 +9095,7 @@
         <v>1.9101477259039099E-12</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:72" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>19</v>
       </c>
@@ -8916,13 +9105,13 @@
       <c r="D11">
         <v>9</v>
       </c>
-      <c r="E11" s="37">
+      <c r="E11" s="36">
         <v>0.02</v>
       </c>
-      <c r="F11" s="38">
+      <c r="F11" s="37">
         <v>45.65</v>
       </c>
-      <c r="G11" s="39">
+      <c r="G11" s="38">
         <v>10.573</v>
       </c>
       <c r="H11" s="2">
@@ -8947,7 +9136,7 @@
         <v>6.4411678303799597E-13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:72" ht="19.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="19" t="s">
         <v>19</v>
       </c>
@@ -8957,13 +9146,13 @@
       <c r="D12">
         <v>10</v>
       </c>
-      <c r="E12" s="37">
+      <c r="E12" s="36">
         <v>0.02</v>
       </c>
-      <c r="F12" s="38">
+      <c r="F12" s="37">
         <v>45.65</v>
       </c>
-      <c r="G12" s="39">
+      <c r="G12" s="38">
         <v>10.573</v>
       </c>
       <c r="H12" s="2">
@@ -8987,15 +9176,36 @@
       <c r="O12" s="3">
         <v>6.4411678303799597E-13</v>
       </c>
+      <c r="Q12" s="46"/>
+      <c r="R12" s="46"/>
+      <c r="S12" s="46"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="46"/>
+      <c r="W12" s="48" t="s">
+        <v>61</v>
+      </c>
+      <c r="X12" s="46"/>
+      <c r="Y12" s="46"/>
+      <c r="Z12" s="46"/>
+      <c r="AA12" s="46"/>
+      <c r="AB12" s="46"/>
+      <c r="AC12" s="46"/>
+      <c r="AD12" s="46"/>
+      <c r="AE12" s="46"/>
+      <c r="AF12" s="46"/>
+      <c r="AG12" s="46"/>
+      <c r="AH12" s="46"/>
     </row>
-    <row r="13" spans="1:18" s="41" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:72" s="39" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="40" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="41">
+      <c r="C13" s="43"/>
+      <c r="D13" s="43">
         <v>11</v>
       </c>
       <c r="E13" s="10">
@@ -9022,30 +9232,88 @@
       <c r="L13" s="13">
         <v>5.5160513999999999E-11</v>
       </c>
-      <c r="N13" s="42">
+      <c r="M13" s="43"/>
+      <c r="N13" s="44">
         <v>5.4432273047151899E-11</v>
       </c>
-      <c r="O13" s="43">
+      <c r="O13" s="45">
         <v>6.1070038393122005E-11</v>
       </c>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+      <c r="W13" s="43"/>
+      <c r="X13" s="43"/>
+      <c r="Y13" s="43"/>
+      <c r="Z13" s="43"/>
+      <c r="AA13" s="43"/>
+      <c r="AB13" s="43"/>
+      <c r="AC13" s="43"/>
+      <c r="AD13" s="43"/>
+      <c r="AE13" s="43"/>
+      <c r="AF13" s="43"/>
+      <c r="AG13" s="43"/>
+      <c r="AH13" s="43"/>
+      <c r="AI13" s="43"/>
+      <c r="AJ13" s="43"/>
+      <c r="AK13" s="43"/>
+      <c r="AL13" s="43"/>
+      <c r="AM13" s="43"/>
+      <c r="AN13" s="43"/>
+      <c r="AO13" s="43"/>
+      <c r="AP13" s="43"/>
+      <c r="AQ13" s="43"/>
+      <c r="AR13" s="43"/>
+      <c r="AS13" s="43"/>
+      <c r="AT13" s="43"/>
+      <c r="AU13" s="43"/>
+      <c r="AV13" s="43"/>
+      <c r="AW13" s="43"/>
+      <c r="AX13" s="43"/>
+      <c r="AY13" s="43"/>
+      <c r="AZ13" s="43"/>
+      <c r="BA13" s="43"/>
+      <c r="BB13" s="43"/>
+      <c r="BC13" s="43"/>
+      <c r="BD13" s="43"/>
+      <c r="BE13" s="43"/>
+      <c r="BF13" s="43"/>
+      <c r="BG13" s="43"/>
+      <c r="BH13" s="43"/>
+      <c r="BI13" s="43"/>
+      <c r="BJ13" s="43"/>
+      <c r="BK13" s="43"/>
+      <c r="BL13" s="43"/>
+      <c r="BM13" s="43"/>
+      <c r="BN13" s="43"/>
+      <c r="BO13" s="43"/>
+      <c r="BP13" s="43"/>
+      <c r="BQ13" s="43"/>
+      <c r="BR13" s="43"/>
+      <c r="BS13" s="43"/>
+      <c r="BT13" s="43"/>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A14" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="41" t="s">
         <v>21</v>
       </c>
       <c r="D14">
         <v>12</v>
       </c>
-      <c r="E14" s="37">
+      <c r="E14" s="36">
         <v>0.27400000000000002</v>
       </c>
-      <c r="F14" s="38">
+      <c r="F14" s="37">
         <v>36.324817518248167</v>
       </c>
-      <c r="G14" s="39">
+      <c r="G14" s="38">
         <v>458.43599999999998</v>
       </c>
       <c r="H14" s="2">
@@ -9070,23 +9338,23 @@
         <v>3.6643635312464698E-11</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A15" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="41" t="s">
         <v>21</v>
       </c>
       <c r="D15">
         <v>13</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="36">
         <v>0.27400000000000002</v>
       </c>
-      <c r="F15" s="38">
+      <c r="F15" s="37">
         <v>36.324817518248167</v>
       </c>
-      <c r="G15" s="39">
+      <c r="G15" s="38">
         <v>458.43599999999998</v>
       </c>
       <c r="H15" s="2">
@@ -9111,23 +9379,23 @@
         <v>5.1445717414123098E-11</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:72" x14ac:dyDescent="0.3">
+      <c r="A16" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="41" t="s">
         <v>22</v>
       </c>
       <c r="D16">
         <v>14</v>
       </c>
-      <c r="E16" s="37">
+      <c r="E16" s="36">
         <v>0.29299999999999998</v>
       </c>
-      <c r="F16" s="38">
+      <c r="F16" s="37">
         <v>34.412969283276453</v>
       </c>
-      <c r="G16" s="39">
+      <c r="G16" s="38">
         <v>607.79600000000005</v>
       </c>
       <c r="H16" s="2">
@@ -9153,22 +9421,22 @@
       </c>
     </row>
     <row r="17" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="41" t="s">
         <v>22</v>
       </c>
       <c r="D17">
         <v>15</v>
       </c>
-      <c r="E17" s="37">
+      <c r="E17" s="36">
         <v>0.29299999999999998</v>
       </c>
-      <c r="F17" s="38">
+      <c r="F17" s="37">
         <v>34.412969283276453</v>
       </c>
-      <c r="G17" s="39">
+      <c r="G17" s="38">
         <v>607.79600000000005</v>
       </c>
       <c r="H17" s="2">
@@ -9194,22 +9462,22 @@
       </c>
     </row>
     <row r="18" spans="1:57" x14ac:dyDescent="0.3">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="42" t="s">
         <v>22</v>
       </c>
       <c r="D18">
         <v>16</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="36">
         <v>0.29299999999999998</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="37">
         <v>34.412969283276453</v>
       </c>
-      <c r="G18" s="39">
+      <c r="G18" s="38">
         <v>607.79600000000005</v>
       </c>
       <c r="H18" s="2">
@@ -9244,13 +9512,13 @@
       <c r="D19">
         <v>17</v>
       </c>
-      <c r="E19" s="37">
+      <c r="E19" s="36">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="F19" s="38">
+      <c r="F19" s="37">
         <v>89.214285714285722</v>
       </c>
-      <c r="G19" s="39">
+      <c r="G19" s="38">
         <v>303.12900000000002</v>
       </c>
       <c r="H19" s="2">
@@ -9285,13 +9553,13 @@
       <c r="D20">
         <v>18</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="36">
         <v>5.6000000000000001E-2</v>
       </c>
-      <c r="F20" s="38">
+      <c r="F20" s="37">
         <v>89.214285714285722</v>
       </c>
-      <c r="G20" s="39">
+      <c r="G20" s="38">
         <v>303.12900000000002</v>
       </c>
       <c r="H20" s="2">
@@ -9452,13 +9720,13 @@
       <c r="D23">
         <v>21</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="36">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="37">
         <v>74.030303030303031</v>
       </c>
-      <c r="G23" s="39">
+      <c r="G23" s="38">
         <v>207.81</v>
       </c>
       <c r="H23" s="2">
@@ -9493,13 +9761,13 @@
       <c r="D24">
         <v>22</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="36">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="37">
         <v>74.030303030303031</v>
       </c>
-      <c r="G24" s="39">
+      <c r="G24" s="38">
         <v>207.81</v>
       </c>
       <c r="H24" s="2">
@@ -9534,13 +9802,13 @@
       <c r="D25">
         <v>23</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="36">
         <v>0.14299999999999999</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="37">
         <v>65.230769230769226</v>
       </c>
-      <c r="G25" s="39">
+      <c r="G25" s="38">
         <v>397.27100000000002</v>
       </c>
       <c r="H25" s="2">
@@ -9575,13 +9843,13 @@
       <c r="D26">
         <v>24</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="36">
         <v>0.14299999999999999</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="37">
         <v>65.230769230769226</v>
       </c>
-      <c r="G26" s="39">
+      <c r="G26" s="38">
         <v>397.27100000000002</v>
       </c>
       <c r="H26" s="2">
@@ -9616,13 +9884,13 @@
       <c r="D27">
         <v>25</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="36">
         <v>0.14299999999999999</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="37">
         <v>65.230769230769226</v>
       </c>
-      <c r="G27" s="39">
+      <c r="G27" s="38">
         <v>397.27100000000002</v>
       </c>
       <c r="H27" s="2">
@@ -9739,13 +10007,13 @@
       <c r="D30">
         <v>28</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="36">
         <v>0.14899999999999999</v>
       </c>
-      <c r="F30" s="38">
+      <c r="F30" s="37">
         <v>78.543624161073822</v>
       </c>
-      <c r="G30" s="39">
+      <c r="G30" s="38">
         <v>307.04399999999998</v>
       </c>
       <c r="H30" s="2">
@@ -9780,13 +10048,13 @@
       <c r="D31">
         <v>29</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="36">
         <v>0.14899999999999999</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="37">
         <v>78.543624161073822</v>
       </c>
-      <c r="G31" s="39">
+      <c r="G31" s="38">
         <v>307.04399999999998</v>
       </c>
       <c r="H31" s="2">
@@ -9821,13 +10089,13 @@
       <c r="D32">
         <v>30</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="36">
         <v>0.14899999999999999</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="37">
         <v>78.543624161073822</v>
       </c>
-      <c r="G32" s="39">
+      <c r="G32" s="38">
         <v>307.04399999999998</v>
       </c>
       <c r="H32" s="2">
@@ -9862,13 +10130,13 @@
       <c r="D33">
         <v>31</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="36">
         <v>0.14899999999999999</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="37">
         <v>78.543624161073822</v>
       </c>
-      <c r="G33" s="39">
+      <c r="G33" s="38">
         <v>307.04399999999998</v>
       </c>
       <c r="H33" s="2">
@@ -9903,13 +10171,13 @@
       <c r="D34">
         <v>32</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="36">
         <v>0.14599999999999999</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="37">
         <v>80.671232876712338</v>
       </c>
-      <c r="G34" s="39">
+      <c r="G34" s="38">
         <v>286.15699999999998</v>
       </c>
       <c r="H34" s="2">
@@ -9944,13 +10212,13 @@
       <c r="D35">
         <v>33</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="36">
         <v>0.14599999999999999</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="37">
         <v>80.671232876712338</v>
       </c>
-      <c r="G35" s="39">
+      <c r="G35" s="38">
         <v>286.15699999999998</v>
       </c>
       <c r="H35" s="2">
@@ -10026,13 +10294,13 @@
       <c r="D37">
         <v>35</v>
       </c>
-      <c r="E37" s="37">
+      <c r="E37" s="36">
         <v>0.11600000000000001</v>
       </c>
-      <c r="F37" s="38">
+      <c r="F37" s="37">
         <v>61.767241379310342</v>
       </c>
-      <c r="G37" s="39">
+      <c r="G37" s="38">
         <v>116.19799999999999</v>
       </c>
       <c r="H37" s="2">
@@ -10067,13 +10335,13 @@
       <c r="D38">
         <v>36</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="36">
         <v>0.11600000000000001</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="37">
         <v>61.767241379310342</v>
       </c>
-      <c r="G38" s="39">
+      <c r="G38" s="38">
         <v>116.19799999999999</v>
       </c>
       <c r="H38" s="2">
@@ -10108,13 +10376,13 @@
       <c r="D39">
         <v>37</v>
       </c>
-      <c r="E39" s="37">
+      <c r="E39" s="36">
         <v>0.11600000000000001</v>
       </c>
-      <c r="F39" s="38">
+      <c r="F39" s="37">
         <v>61.767241379310342</v>
       </c>
-      <c r="G39" s="39">
+      <c r="G39" s="38">
         <v>116.19799999999999</v>
       </c>
       <c r="H39" s="2">
@@ -10149,13 +10417,13 @@
       <c r="D40">
         <v>38</v>
       </c>
-      <c r="E40" s="37">
+      <c r="E40" s="36">
         <v>0.112</v>
       </c>
-      <c r="F40" s="38">
+      <c r="F40" s="37">
         <v>59.857142857142854</v>
       </c>
-      <c r="G40" s="39">
+      <c r="G40" s="38">
         <v>95.679000000000002</v>
       </c>
       <c r="H40" s="2">
@@ -10231,13 +10499,13 @@
       <c r="D42">
         <v>40</v>
       </c>
-      <c r="E42" s="37">
+      <c r="E42" s="36">
         <v>0.112</v>
       </c>
-      <c r="F42" s="38">
+      <c r="F42" s="37">
         <v>59.857142857142854</v>
       </c>
-      <c r="G42" s="39">
+      <c r="G42" s="38">
         <v>95.679000000000002</v>
       </c>
       <c r="H42" s="2">
@@ -10354,13 +10622,13 @@
       <c r="D45">
         <v>43</v>
       </c>
-      <c r="E45" s="37">
+      <c r="E45" s="36">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="F45" s="38">
+      <c r="F45" s="37">
         <v>56.44318181818182</v>
       </c>
-      <c r="G45" s="39">
+      <c r="G45" s="38">
         <v>68.700999999999993</v>
       </c>
       <c r="H45" s="2">
@@ -10436,13 +10704,13 @@
       <c r="D47">
         <v>45</v>
       </c>
-      <c r="E47" s="37">
+      <c r="E47" s="36">
         <v>0.05</v>
       </c>
-      <c r="F47" s="38">
+      <c r="F47" s="37">
         <v>58.179999999999993</v>
       </c>
-      <c r="G47" s="39">
+      <c r="G47" s="38">
         <v>28.32</v>
       </c>
       <c r="H47" s="2">
@@ -10471,19 +10739,19 @@
       <c r="A48" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B48" s="22" t="s">
+      <c r="B48" s="21" t="s">
         <v>36</v>
       </c>
       <c r="D48">
         <v>46</v>
       </c>
-      <c r="E48" s="37">
+      <c r="E48" s="36">
         <v>0.05</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="37">
         <v>58.179999999999993</v>
       </c>
-      <c r="G48" s="39">
+      <c r="G48" s="38">
         <v>28.32</v>
       </c>
       <c r="H48" s="2">
@@ -10518,28 +10786,28 @@
       <c r="D49">
         <v>47</v>
       </c>
-      <c r="E49" s="26">
+      <c r="E49" s="25">
         <v>0.05</v>
       </c>
-      <c r="F49" s="27">
+      <c r="F49" s="26">
         <v>58.179999999999993</v>
       </c>
-      <c r="G49" s="28">
+      <c r="G49" s="27">
         <v>28.32</v>
       </c>
-      <c r="H49" s="29">
+      <c r="H49" s="28">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="I49" s="29">
+      <c r="I49" s="28">
         <v>2.5110000000000001</v>
       </c>
-      <c r="J49" s="29">
+      <c r="J49" s="28">
         <v>-28.010999999999999</v>
       </c>
-      <c r="K49" s="29">
+      <c r="K49" s="28">
         <v>3.6</v>
       </c>
-      <c r="L49" s="30">
+      <c r="L49" s="29">
         <v>5.4999999999999999E-14</v>
       </c>
       <c r="N49" s="16">
@@ -10559,30 +10827,30 @@
       <c r="D50">
         <v>48</v>
       </c>
-      <c r="E50" s="26">
+      <c r="E50" s="25">
         <v>0.23799999999999999</v>
       </c>
-      <c r="F50" s="27">
+      <c r="F50" s="26">
         <v>47.319327731092443</v>
       </c>
-      <c r="G50" s="31">
+      <c r="G50" s="30">
         <v>518.54100000000005</v>
       </c>
-      <c r="H50" s="29">
+      <c r="H50" s="28">
         <f>E50*0.996</f>
         <v>0.23704799999999998</v>
       </c>
-      <c r="I50" s="29">
+      <c r="I50" s="28">
         <f t="shared" ref="I50:I51" si="0">F50*E50*0.6</f>
         <v>6.7572000000000001</v>
       </c>
-      <c r="J50" s="29">
+      <c r="J50" s="28">
         <v>-127</v>
       </c>
-      <c r="K50" s="29">
+      <c r="K50" s="28">
         <v>1.3280000000000001</v>
       </c>
-      <c r="L50" s="30">
+      <c r="L50" s="29">
         <v>3.7628104499999998E-11</v>
       </c>
       <c r="N50" s="16">
@@ -10602,30 +10870,30 @@
       <c r="D51">
         <v>49</v>
       </c>
-      <c r="E51" s="26">
+      <c r="E51" s="25">
         <v>0.23799999999999999</v>
       </c>
-      <c r="F51" s="27">
+      <c r="F51" s="26">
         <v>47.319327731092443</v>
       </c>
-      <c r="G51" s="31">
+      <c r="G51" s="30">
         <v>518.54100000000005</v>
       </c>
-      <c r="H51" s="29">
+      <c r="H51" s="28">
         <f>E51*0.92</f>
         <v>0.21895999999999999</v>
       </c>
-      <c r="I51" s="29">
+      <c r="I51" s="28">
         <f t="shared" si="0"/>
         <v>6.7572000000000001</v>
       </c>
-      <c r="J51" s="29">
+      <c r="J51" s="28">
         <v>-167</v>
       </c>
-      <c r="K51" s="29">
+      <c r="K51" s="28">
         <v>2.4079999999999999</v>
       </c>
-      <c r="L51" s="30">
+      <c r="L51" s="29">
         <v>9.8677179999999999E-12</v>
       </c>
       <c r="N51" s="16">
@@ -10645,30 +10913,30 @@
       <c r="D52">
         <v>50</v>
       </c>
-      <c r="E52" s="26">
+      <c r="E52" s="25">
         <v>0.23799999999999999</v>
       </c>
-      <c r="F52" s="27">
+      <c r="F52" s="26">
         <v>47.319327731092443</v>
       </c>
-      <c r="G52" s="31">
+      <c r="G52" s="30">
         <v>518.54100000000005</v>
       </c>
-      <c r="H52" s="29">
+      <c r="H52" s="28">
         <f>E52*0.997</f>
         <v>0.237286</v>
       </c>
-      <c r="I52" s="29">
+      <c r="I52" s="28">
         <f>F52*E52*0.65</f>
         <v>7.3203000000000005</v>
       </c>
-      <c r="J52" s="29">
+      <c r="J52" s="28">
         <v>-220</v>
       </c>
-      <c r="K52" s="29">
+      <c r="K52" s="28">
         <v>2.4279999999999999</v>
       </c>
-      <c r="L52" s="30">
+      <c r="L52" s="29">
         <v>6.5677179999999999E-12</v>
       </c>
       <c r="N52" s="16">
@@ -10688,30 +10956,30 @@
       <c r="D53">
         <v>51</v>
       </c>
-      <c r="E53" s="26">
+      <c r="E53" s="25">
         <v>0.29599999999999999</v>
       </c>
-      <c r="F53" s="27">
+      <c r="F53" s="26">
         <v>34.449324324324323</v>
       </c>
-      <c r="G53" s="31">
+      <c r="G53" s="30">
         <v>553.61199999999997</v>
       </c>
-      <c r="H53" s="29">
+      <c r="H53" s="28">
         <f>E53*0.996</f>
         <v>0.29481599999999997</v>
       </c>
-      <c r="I53" s="29">
+      <c r="I53" s="28">
         <f t="shared" ref="I53:I54" si="1">F53*E53*0.6</f>
         <v>6.118199999999999</v>
       </c>
-      <c r="J53" s="29">
+      <c r="J53" s="28">
         <v>-127</v>
       </c>
-      <c r="K53" s="29">
+      <c r="K53" s="28">
         <v>1.59</v>
       </c>
-      <c r="L53" s="30">
+      <c r="L53" s="29">
         <v>3.7628104499999998E-11</v>
       </c>
       <c r="N53" s="16">
@@ -10731,30 +10999,30 @@
       <c r="D54">
         <v>52</v>
       </c>
-      <c r="E54" s="26">
+      <c r="E54" s="25">
         <v>0.29599999999999999</v>
       </c>
-      <c r="F54" s="27">
+      <c r="F54" s="26">
         <v>34.449324324324323</v>
       </c>
-      <c r="G54" s="31">
+      <c r="G54" s="30">
         <v>553.61199999999997</v>
       </c>
-      <c r="H54" s="29">
+      <c r="H54" s="28">
         <f>E54*0.92</f>
         <v>0.27232000000000001</v>
       </c>
-      <c r="I54" s="29">
+      <c r="I54" s="28">
         <f t="shared" si="1"/>
         <v>6.118199999999999</v>
       </c>
-      <c r="J54" s="29">
+      <c r="J54" s="28">
         <v>-200</v>
       </c>
-      <c r="K54" s="29">
+      <c r="K54" s="28">
         <v>1.9</v>
       </c>
-      <c r="L54" s="30">
+      <c r="L54" s="29">
         <v>8.5086450000000006E-11</v>
       </c>
       <c r="N54" s="16">
@@ -10774,30 +11042,30 @@
       <c r="D55">
         <v>53</v>
       </c>
-      <c r="E55" s="26">
+      <c r="E55" s="25">
         <v>0.29599999999999999</v>
       </c>
-      <c r="F55" s="27">
+      <c r="F55" s="26">
         <v>34.449324324324323</v>
       </c>
-      <c r="G55" s="31">
+      <c r="G55" s="30">
         <v>553.61199999999997</v>
       </c>
-      <c r="H55" s="29">
+      <c r="H55" s="28">
         <f>E55*0.997</f>
         <v>0.29511199999999999</v>
       </c>
-      <c r="I55" s="29">
+      <c r="I55" s="28">
         <f>F55*E55*0.65</f>
         <v>6.62805</v>
       </c>
-      <c r="J55" s="29">
+      <c r="J55" s="28">
         <v>-250</v>
       </c>
-      <c r="K55" s="29">
+      <c r="K55" s="28">
         <v>1.87</v>
       </c>
-      <c r="L55" s="30">
+      <c r="L55" s="29">
         <v>6.7827537000000006E-11</v>
       </c>
       <c r="N55" s="16">
@@ -10817,30 +11085,30 @@
       <c r="D56">
         <v>54</v>
       </c>
-      <c r="E56" s="26">
+      <c r="E56" s="25">
         <v>0.23499999999999999</v>
       </c>
-      <c r="F56" s="27">
+      <c r="F56" s="26">
         <v>38</v>
       </c>
-      <c r="G56" s="31">
+      <c r="G56" s="30">
         <v>371.12400000000002</v>
       </c>
-      <c r="H56" s="29">
+      <c r="H56" s="28">
         <f>E56*0.996</f>
         <v>0.23405999999999999</v>
       </c>
-      <c r="I56" s="29">
+      <c r="I56" s="28">
         <f t="shared" ref="I56:I57" si="2">F56*E56*0.6</f>
         <v>5.3579999999999997</v>
       </c>
-      <c r="J56" s="29">
+      <c r="J56" s="28">
         <v>-127</v>
       </c>
-      <c r="K56" s="29">
+      <c r="K56" s="28">
         <v>1.9750000000000001</v>
       </c>
-      <c r="L56" s="30">
+      <c r="L56" s="29">
         <v>1.2644019E-11</v>
       </c>
       <c r="N56" s="16">
@@ -10860,30 +11128,30 @@
       <c r="D57">
         <v>55</v>
       </c>
-      <c r="E57" s="26">
+      <c r="E57" s="25">
         <v>0.23499999999999999</v>
       </c>
-      <c r="F57" s="27">
+      <c r="F57" s="26">
         <v>38</v>
       </c>
-      <c r="G57" s="31">
+      <c r="G57" s="30">
         <v>371.12400000000002</v>
       </c>
-      <c r="H57" s="29">
+      <c r="H57" s="28">
         <f>E57*0.92</f>
         <v>0.2162</v>
       </c>
-      <c r="I57" s="29">
+      <c r="I57" s="28">
         <f t="shared" si="2"/>
         <v>5.3579999999999997</v>
       </c>
-      <c r="J57" s="29">
+      <c r="J57" s="28">
         <v>-180</v>
       </c>
-      <c r="K57" s="29">
+      <c r="K57" s="28">
         <v>2.4729999999999999</v>
       </c>
-      <c r="L57" s="30">
+      <c r="L57" s="29">
         <v>8.8677180000000018E-12</v>
       </c>
       <c r="N57" s="16">
@@ -10894,39 +11162,39 @@
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A58" s="21" t="s">
+      <c r="A58" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B58" s="23" t="s">
+      <c r="B58" s="22" t="s">
         <v>39</v>
       </c>
       <c r="D58">
         <v>56</v>
       </c>
-      <c r="E58" s="32">
+      <c r="E58" s="31">
         <v>0.23499999999999999</v>
       </c>
-      <c r="F58" s="33">
+      <c r="F58" s="32">
         <v>38</v>
       </c>
-      <c r="G58" s="34">
+      <c r="G58" s="33">
         <v>371.12400000000002</v>
       </c>
-      <c r="H58" s="35">
+      <c r="H58" s="34">
         <f>E58*0.997</f>
         <v>0.23429499999999998</v>
       </c>
-      <c r="I58" s="35">
+      <c r="I58" s="34">
         <f>F58*E58*0.65</f>
         <v>5.8045</v>
       </c>
-      <c r="J58" s="35">
+      <c r="J58" s="34">
         <v>-220</v>
       </c>
-      <c r="K58" s="35">
+      <c r="K58" s="34">
         <v>1.8169999999999999</v>
       </c>
-      <c r="L58" s="36">
+      <c r="L58" s="35">
         <v>1.5080661000000001E-11</v>
       </c>
       <c r="N58" s="16">
@@ -10952,7 +11220,7 @@
       <c r="F59" s="5">
         <v>78</v>
       </c>
-      <c r="G59" s="24">
+      <c r="G59" s="23">
         <v>300</v>
       </c>
       <c r="H59" s="6">
@@ -10993,7 +11261,7 @@
       <c r="F60" s="5">
         <v>78</v>
       </c>
-      <c r="G60" s="24">
+      <c r="G60" s="23">
         <v>300</v>
       </c>
       <c r="H60" s="6">
@@ -11034,7 +11302,7 @@
       <c r="F61" s="5">
         <v>13.426641700000001</v>
       </c>
-      <c r="G61" s="24">
+      <c r="G61" s="23">
         <v>28.608499999999999</v>
       </c>
       <c r="H61" s="6">
@@ -11075,7 +11343,7 @@
       <c r="F62" s="5">
         <v>13.177497900000001</v>
       </c>
-      <c r="G62" s="24">
+      <c r="G62" s="23">
         <v>32.108562499999998</v>
       </c>
       <c r="H62" s="6">
@@ -11116,7 +11384,7 @@
       <c r="F63" s="5">
         <v>12.6347723</v>
       </c>
-      <c r="G63" s="24">
+      <c r="G63" s="23">
         <v>36.021875000000001</v>
       </c>
       <c r="H63" s="6">
@@ -11157,7 +11425,7 @@
       <c r="F64" s="5">
         <v>13.559945300000001</v>
       </c>
-      <c r="G64" s="24">
+      <c r="G64" s="23">
         <v>31.379375</v>
       </c>
       <c r="H64" s="6">
@@ -11182,7 +11450,7 @@
         <v>2.27403292899953E-12</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A65" s="19" t="s">
         <v>44</v>
       </c>
@@ -11198,7 +11466,7 @@
       <c r="F65" s="8">
         <v>0</v>
       </c>
-      <c r="G65" s="25">
+      <c r="G65" s="24">
         <v>94.4375</v>
       </c>
       <c r="H65" s="8">
@@ -11223,7 +11491,7 @@
         <v>1.08075141916532E-12</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:36" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="19" t="s">
         <v>44</v>
       </c>
@@ -11237,7 +11505,7 @@
         <v>0.12499896000000002</v>
       </c>
       <c r="F66" s="8"/>
-      <c r="G66" s="25">
+      <c r="G66" s="24">
         <v>137.9375</v>
       </c>
       <c r="H66" s="8">
@@ -11261,8 +11529,28 @@
       <c r="O66" s="3">
         <v>1.10704018217583E-12</v>
       </c>
+      <c r="S66" s="46"/>
+      <c r="T66" s="46"/>
+      <c r="U66" s="46"/>
+      <c r="V66" s="46"/>
+      <c r="W66" s="46"/>
+      <c r="X66" s="46"/>
+      <c r="Y66" s="47" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z66" s="46"/>
+      <c r="AA66" s="46"/>
+      <c r="AB66" s="46"/>
+      <c r="AC66" s="46"/>
+      <c r="AD66" s="46"/>
+      <c r="AE66" s="46"/>
+      <c r="AF66" s="46"/>
+      <c r="AG66" s="46"/>
+      <c r="AH66" s="46"/>
+      <c r="AI66" s="46"/>
+      <c r="AJ66" s="46"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A67" s="19" t="s">
         <v>15</v>
       </c>
@@ -11278,7 +11566,7 @@
       <c r="F67" s="8">
         <v>22.788139999999999</v>
       </c>
-      <c r="G67" s="25">
+      <c r="G67" s="24">
         <v>29.653625000000002</v>
       </c>
       <c r="H67" s="6">
@@ -11303,7 +11591,7 @@
         <v>3.67442867375795E-13</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A68" s="19" t="s">
         <v>15</v>
       </c>
@@ -11319,7 +11607,7 @@
       <c r="F68" s="8">
         <v>22.96452</v>
       </c>
-      <c r="G68" s="25">
+      <c r="G68" s="24">
         <v>29.653625000000002</v>
       </c>
       <c r="H68" s="6">
@@ -11344,7 +11632,7 @@
         <v>3.3188052899957699E-13</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A69" s="19" t="s">
         <v>15</v>
       </c>
@@ -11360,7 +11648,7 @@
       <c r="F69" s="8">
         <v>23.68478</v>
       </c>
-      <c r="G69" s="25">
+      <c r="G69" s="24">
         <v>66.040125000000003</v>
       </c>
       <c r="H69" s="6">
@@ -11385,7 +11673,7 @@
         <v>7.8152315867465596E-15</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A70" s="19" t="s">
         <v>15</v>
       </c>
@@ -11401,7 +11689,7 @@
       <c r="F70" s="8">
         <v>23.175249999999998</v>
       </c>
-      <c r="G70" s="25">
+      <c r="G70" s="24">
         <v>66.040125000000003</v>
       </c>
       <c r="H70" s="6">
@@ -11426,7 +11714,7 @@
         <v>2.8313618195457099E-13</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A71" s="19" t="s">
         <v>44</v>
       </c>
@@ -11443,7 +11731,7 @@
         <f t="shared" ref="F71:F80" si="3">I71/H71</f>
         <v>166.39938210836326</v>
       </c>
-      <c r="G71" s="25">
+      <c r="G71" s="24">
         <v>184.6875</v>
       </c>
       <c r="H71" s="8">
@@ -11468,7 +11756,7 @@
         <v>5.6300152612124796E-13</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A72" s="19" t="s">
         <v>44</v>
       </c>
@@ -11485,7 +11773,7 @@
         <f t="shared" si="3"/>
         <v>165.62943574898139</v>
       </c>
-      <c r="G72" s="25">
+      <c r="G72" s="24">
         <v>189.875</v>
       </c>
       <c r="H72" s="8">
@@ -11508,7 +11796,7 @@
       </c>
       <c r="P72" s="3"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A73" s="19" t="s">
         <v>47</v>
       </c>
@@ -11525,7 +11813,7 @@
         <f t="shared" si="3"/>
         <v>214.66289771921612</v>
       </c>
-      <c r="G73" s="25">
+      <c r="G73" s="24">
         <v>52.9375</v>
       </c>
       <c r="H73" s="8">
@@ -11548,7 +11836,7 @@
       </c>
       <c r="P73" s="3"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A74" s="19" t="s">
         <v>47</v>
       </c>
@@ -11565,7 +11853,7 @@
         <f t="shared" si="3"/>
         <v>214.66289771921612</v>
       </c>
-      <c r="G74" s="25">
+      <c r="G74" s="24">
         <v>52.9375</v>
       </c>
       <c r="H74" s="8">
@@ -11588,7 +11876,7 @@
       </c>
       <c r="P74" s="3"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
         <v>47</v>
       </c>
@@ -11605,7 +11893,7 @@
         <f t="shared" si="3"/>
         <v>232.78156906953484</v>
       </c>
-      <c r="G75" s="25">
+      <c r="G75" s="24">
         <v>80.875</v>
       </c>
       <c r="H75" s="8">
@@ -11628,7 +11916,7 @@
       </c>
       <c r="P75" s="3"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A76" s="19" t="s">
         <v>47</v>
       </c>
@@ -11645,7 +11933,7 @@
         <f t="shared" si="3"/>
         <v>232.78156906953484</v>
       </c>
-      <c r="G76" s="25">
+      <c r="G76" s="24">
         <v>80.875</v>
       </c>
       <c r="H76" s="8">
@@ -11667,7 +11955,7 @@
         <v>2.01671376367638E-13</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A77" s="19" t="s">
         <v>44</v>
       </c>
@@ -11684,7 +11972,7 @@
         <f t="shared" si="3"/>
         <v>209.82685050954302</v>
       </c>
-      <c r="G77" s="25">
+      <c r="G77" s="24">
         <v>92.8125</v>
       </c>
       <c r="H77" s="8">
@@ -11707,7 +11995,7 @@
       </c>
       <c r="P77" s="3"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A78" s="19" t="s">
         <v>44</v>
       </c>
@@ -11724,7 +12012,7 @@
         <f t="shared" si="3"/>
         <v>199.48868087131606</v>
       </c>
-      <c r="G78" s="25">
+      <c r="G78" s="24">
         <v>152.9375</v>
       </c>
       <c r="H78" s="8">
@@ -11747,7 +12035,7 @@
       </c>
       <c r="P78" s="3"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A79" s="19" t="s">
         <v>44</v>
       </c>
@@ -11764,7 +12052,7 @@
         <f t="shared" si="3"/>
         <v>187.54841204149469</v>
       </c>
-      <c r="G79" s="25">
+      <c r="G79" s="24">
         <v>87.875</v>
       </c>
       <c r="H79" s="8">
@@ -11787,7 +12075,7 @@
       </c>
       <c r="P79" s="3"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A80" s="19" t="s">
         <v>44</v>
       </c>
@@ -11804,7 +12092,7 @@
         <f t="shared" si="3"/>
         <v>184.98433754350756</v>
       </c>
-      <c r="G80" s="25">
+      <c r="G80" s="24">
         <v>154</v>
       </c>
       <c r="H80" s="8">
@@ -11827,18 +12115,14 @@
       </c>
       <c r="P80" s="3"/>
     </row>
-    <row r="81" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:16" x14ac:dyDescent="0.3">
       <c r="P81" s="3"/>
     </row>
-    <row r="86" spans="4:17" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="P86" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q86" t="s">
-        <v>61</v>
-      </c>
+    <row r="82" spans="4:16" x14ac:dyDescent="0.3">
+      <c r="L82" s="49"/>
     </row>
-    <row r="87" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:16" ht="16.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D87">
         <v>11</v>
       </c>
@@ -11872,14 +12156,8 @@
       <c r="O87" s="3">
         <v>6.1070038393122005E-11</v>
       </c>
-      <c r="P87">
-        <v>1.38053199599644E-3</v>
-      </c>
-      <c r="Q87">
-        <v>1.8188945000000001E-3</v>
-      </c>
     </row>
-    <row r="88" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D88">
         <v>19</v>
       </c>
@@ -11913,14 +12191,8 @@
       <c r="O88" s="3">
         <v>2.07134272265309E-13</v>
       </c>
-      <c r="P88">
-        <v>1.7574898263689499E-3</v>
-      </c>
-      <c r="Q88">
-        <v>3.4908768999999998E-3</v>
-      </c>
     </row>
-    <row r="89" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D89">
         <v>20</v>
       </c>
@@ -11954,14 +12226,8 @@
       <c r="O89" s="3">
         <v>2.6451843037795799E-13</v>
       </c>
-      <c r="P89">
-        <v>1.1324072327255901E-3</v>
-      </c>
-      <c r="Q89">
-        <v>3.7614115999999999E-3</v>
-      </c>
     </row>
-    <row r="90" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D90">
         <v>26</v>
       </c>
@@ -11995,14 +12261,8 @@
       <c r="O90" s="3">
         <v>4.2342379337519701E-13</v>
       </c>
-      <c r="P90">
-        <v>7.5555304349937697E-3</v>
-      </c>
-      <c r="Q90">
-        <v>1.7994394E-3</v>
-      </c>
     </row>
-    <row r="91" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D91">
         <v>27</v>
       </c>
@@ -12036,14 +12296,8 @@
       <c r="O91" s="3">
         <v>5.5101139241284799E-13</v>
       </c>
-      <c r="P91">
-        <v>2.03760335576474E-3</v>
-      </c>
-      <c r="Q91">
-        <v>3.0234124999999998E-3</v>
-      </c>
     </row>
-    <row r="92" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D92">
         <v>34</v>
       </c>
@@ -12077,14 +12331,8 @@
       <c r="O92" s="3">
         <v>5.2078391007211602E-13</v>
       </c>
-      <c r="P92">
-        <v>1.27223682192509E-3</v>
-      </c>
-      <c r="Q92">
-        <v>5.0647749999999997E-3</v>
-      </c>
     </row>
-    <row r="93" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D93">
         <v>39</v>
       </c>
@@ -12118,14 +12366,8 @@
       <c r="O93" s="3">
         <v>5.1533518963237898E-13</v>
       </c>
-      <c r="P93">
-        <v>4.0070859893791997E-3</v>
-      </c>
-      <c r="Q93">
-        <v>1.6673663999999999E-3</v>
-      </c>
     </row>
-    <row r="94" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D94">
         <v>41</v>
       </c>
@@ -12159,14 +12401,8 @@
       <c r="O94" s="3">
         <v>4.8509376220410103E-13</v>
       </c>
-      <c r="P94">
-        <v>3.0395332619705898E-3</v>
-      </c>
-      <c r="Q94">
-        <v>3.9905390000000004E-3</v>
-      </c>
     </row>
-    <row r="95" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D95">
         <v>42</v>
       </c>
@@ -12200,14 +12436,8 @@
       <c r="O95" s="3">
         <v>2.6195182780045102E-13</v>
       </c>
-      <c r="P95">
-        <v>1.0878800982553401E-2</v>
-      </c>
-      <c r="Q95">
-        <v>3.7201097999999999E-3</v>
-      </c>
     </row>
-    <row r="96" spans="4:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D96">
         <v>44</v>
       </c>
@@ -12240,12 +12470,6 @@
       </c>
       <c r="O96" s="3">
         <v>6.9272935822051502E-13</v>
-      </c>
-      <c r="P96">
-        <v>0.41793584992243299</v>
-      </c>
-      <c r="Q96">
-        <v>0.46273061999999998</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.3">
@@ -12380,6 +12604,7 @@
       <c r="L128"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
